--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCD/20/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCD/20/seed4/result_data_KNN.xlsx
@@ -536,7 +536,7 @@
         <v>5.51</v>
       </c>
       <c r="C6" t="n">
-        <v>-13.018</v>
+        <v>-12.998</v>
       </c>
       <c r="D6" t="n">
         <v>-8.08</v>
@@ -550,13 +550,13 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.622000000000001</v>
+        <v>5.811000000000001</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.504</v>
+        <v>-7.698</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-22.146</v>
+        <v>-21.916</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -607,7 +607,7 @@
         <v>-12.45</v>
       </c>
       <c r="D10" t="n">
-        <v>-8.404</v>
+        <v>-8.415000000000001</v>
       </c>
       <c r="E10" t="n">
         <v>15.84</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.144</v>
+        <v>5.662</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-22.096</v>
+        <v>-22.117</v>
       </c>
       <c r="B13" t="n">
         <v>4.02</v>
@@ -658,7 +658,7 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-7.896000000000001</v>
+        <v>-8.014999999999999</v>
       </c>
       <c r="E13" t="n">
         <v>16.47</v>
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>5.944</v>
+        <v>6.044</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-13.25</v>
+        <v>-12.909</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.658</v>
+        <v>-21.567</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -709,7 +709,7 @@
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.692</v>
+        <v>-8.535</v>
       </c>
       <c r="E16" t="n">
         <v>14.68</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-21.778</v>
+        <v>-21.962</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -754,7 +754,7 @@
         <v>-18.24</v>
       </c>
       <c r="B19" t="n">
-        <v>7.064</v>
+        <v>7.859999999999999</v>
       </c>
       <c r="C19" t="n">
         <v>-12.15</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-21.628</v>
+        <v>-21.296</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -777,7 +777,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.618</v>
+        <v>-8.059999999999999</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -845,7 +845,7 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.182</v>
+        <v>-7.351999999999999</v>
       </c>
       <c r="E24" t="n">
         <v>16.37</v>
@@ -870,10 +870,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.378</v>
+        <v>-21.393</v>
       </c>
       <c r="B26" t="n">
-        <v>6.364</v>
+        <v>6.089</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -887,10 +887,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.808</v>
+        <v>-21.162</v>
       </c>
       <c r="B27" t="n">
-        <v>6.056</v>
+        <v>6.193000000000001</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -910,7 +910,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-13.104</v>
+        <v>-12.965</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -921,10 +921,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.958</v>
+        <v>-21.84</v>
       </c>
       <c r="B29" t="n">
-        <v>6.894</v>
+        <v>6.164000000000001</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -981,7 +981,7 @@
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-8.988</v>
+        <v>-8.408000000000001</v>
       </c>
       <c r="E32" t="n">
         <v>15.18</v>
@@ -995,7 +995,7 @@
         <v>6.69</v>
       </c>
       <c r="C33" t="n">
-        <v>-11.558</v>
+        <v>-11.314</v>
       </c>
       <c r="D33" t="n">
         <v>-6.63</v>
@@ -1023,13 +1023,13 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-20.286</v>
+        <v>-20.336</v>
       </c>
       <c r="B35" t="n">
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-13.416</v>
+        <v>-12.904</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-21.054</v>
+        <v>-20.814</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>6.992</v>
+        <v>7.515000000000001</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1077,10 +1077,10 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>5.232</v>
+        <v>5.914</v>
       </c>
       <c r="C38" t="n">
-        <v>-12.408</v>
+        <v>-12.56</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1100,7 +1100,7 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-7.816</v>
+        <v>-7.555</v>
       </c>
       <c r="E39" t="n">
         <v>16.91</v>
@@ -1165,7 +1165,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>-12.076</v>
+        <v>-12.494</v>
       </c>
       <c r="D43" t="n">
         <v>-6.95</v>
@@ -1182,7 +1182,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-14.328</v>
+        <v>-12.741</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1193,13 +1193,13 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-21.272</v>
+        <v>-21.575</v>
       </c>
       <c r="B45" t="n">
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.036</v>
+        <v>-12.53</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1230,13 +1230,13 @@
         <v>-21.83</v>
       </c>
       <c r="B47" t="n">
-        <v>6.284</v>
+        <v>6.433</v>
       </c>
       <c r="C47" t="n">
-        <v>-12.298</v>
+        <v>-12.199</v>
       </c>
       <c r="D47" t="n">
-        <v>-6.964</v>
+        <v>-7.312</v>
       </c>
       <c r="E47" t="n">
         <v>17.05</v>
@@ -1253,7 +1253,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.314</v>
+        <v>-7.229000000000001</v>
       </c>
       <c r="E48" t="n">
         <v>17.41</v>
@@ -1298,10 +1298,10 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>6.899999999999999</v>
+        <v>5.906</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.75</v>
+        <v>-11.915</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1315,13 +1315,13 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>6.402000000000001</v>
+        <v>5.639</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.48</v>
+        <v>-7.585000000000001</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1352,7 +1352,7 @@
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-13.356</v>
+        <v>-13.376</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1363,10 +1363,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.092</v>
+        <v>-21.724</v>
       </c>
       <c r="B55" t="n">
-        <v>7.104000000000001</v>
+        <v>6.391999999999999</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1389,7 +1389,7 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-7.734</v>
+        <v>-7.972</v>
       </c>
       <c r="E56" t="n">
         <v>16.79</v>
@@ -1397,13 +1397,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-21.942</v>
+        <v>-21.349</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.588</v>
+        <v>-13.051</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1488,7 +1488,7 @@
         <v>4.28</v>
       </c>
       <c r="C62" t="n">
-        <v>-13.484</v>
+        <v>-13.61</v>
       </c>
       <c r="D62" t="n">
         <v>-8.5</v>
@@ -1505,7 +1505,7 @@
         <v>4.39</v>
       </c>
       <c r="C63" t="n">
-        <v>-11.954</v>
+        <v>-12.277</v>
       </c>
       <c r="D63" t="n">
         <v>-7.14</v>
@@ -1573,7 +1573,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-12.002</v>
+        <v>-11.224</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1601,10 +1601,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.88</v>
+        <v>-21.42899999999999</v>
       </c>
       <c r="B69" t="n">
-        <v>5.45</v>
+        <v>6.43</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1621,10 +1621,10 @@
         <v>-21.91</v>
       </c>
       <c r="B70" t="n">
-        <v>5.773999999999999</v>
+        <v>6.08</v>
       </c>
       <c r="C70" t="n">
-        <v>-11.678</v>
+        <v>-11.114</v>
       </c>
       <c r="D70" t="n">
         <v>-7.03</v>
@@ -1720,10 +1720,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-21.6</v>
+        <v>-21.706</v>
       </c>
       <c r="B76" t="n">
-        <v>7.694</v>
+        <v>6.703</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-21.396</v>
+        <v>-20.786</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1808,10 +1808,10 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>4.834000000000001</v>
+        <v>5.497999999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>-12.912</v>
+        <v>-12.632</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-22.018</v>
+        <v>-21.896</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-20.35</v>
+        <v>-20.927</v>
       </c>
       <c r="B83" t="n">
-        <v>7.861999999999999</v>
+        <v>7.124</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1865,7 +1865,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.498000000000001</v>
+        <v>-8.181000000000001</v>
       </c>
       <c r="E84" t="n">
         <v>16.54</v>
@@ -1930,7 +1930,7 @@
         <v>5.51</v>
       </c>
       <c r="C88" t="n">
-        <v>-12.456</v>
+        <v>-13.324</v>
       </c>
       <c r="D88" t="n">
         <v>-8.140000000000001</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-22.036</v>
+        <v>-21.77</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2029,7 +2029,7 @@
         <v>-20.95</v>
       </c>
       <c r="B94" t="n">
-        <v>7.014</v>
+        <v>6.742</v>
       </c>
       <c r="C94" t="n">
         <v>-10.65</v>
@@ -2066,7 +2066,7 @@
         <v>5.8</v>
       </c>
       <c r="C96" t="n">
-        <v>-12.86</v>
+        <v>-12.998</v>
       </c>
       <c r="D96" t="n">
         <v>-8.529999999999999</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-21.792</v>
+        <v>-21.795</v>
       </c>
       <c r="B97" t="n">
         <v>5.08</v>
@@ -2117,7 +2117,7 @@
         <v>8.42</v>
       </c>
       <c r="C99" t="n">
-        <v>-13.82</v>
+        <v>-12.729</v>
       </c>
       <c r="D99" t="n">
         <v>-7.98</v>
@@ -2131,13 +2131,13 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>6.884</v>
+        <v>6.196</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.513999999999999</v>
+        <v>-8.503</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2154,7 +2154,7 @@
         <v>-11.07</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.982000000000001</v>
+        <v>-7.742</v>
       </c>
       <c r="E101" t="n">
         <v>16.32</v>
@@ -2165,7 +2165,7 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>6.617999999999999</v>
+        <v>6.922</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
